--- a/TeamWeeklyReport_TEAM1.xlsx
+++ b/TeamWeeklyReport_TEAM1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3ryc\Documents\School\College\CS 499\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcb0033\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247D550F-67EE-4788-A98C-EAC5CA7445F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Members List" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="Problem Reports" sheetId="12" r:id="rId12"/>
     <sheet name="Lists" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,12 +102,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,12 +154,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,12 +204,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,12 +227,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,12 +291,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,12 +315,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="388">
   <si>
     <t>Name</t>
   </si>
@@ -1500,12 +1499,15 @@
   </si>
   <si>
     <t>As a Webmaster, I want to be able to review user data such as basic user information, connection time, features used/accessed, and user inputs so that I can monitor website usage.</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
@@ -1805,13 +1807,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1882,9 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
@@ -4997,22 +5001,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{927DE78E-AD29-4C2A-B7A1-35134016DFB3}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{CA21CA70-D608-4CDB-861D-1B211FE77DD5}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
+          <xm:sqref>B3:B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lists!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5021,7 +5031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F1000"/>
   <sheetViews>
@@ -6109,7 +6119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -7215,13 +7225,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -7234,7 +7244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -8495,13 +8505,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$G$2:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -8514,13 +8524,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8699,6 +8709,9 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>387</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>305</v>
       </c>
@@ -9691,11 +9704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11005,7 +11018,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$6</xm:f>
           </x14:formula1>
@@ -11018,7 +11031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -12239,19 +12252,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="date" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="date" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!D2</xm:f>
           </x14:formula1>
@@ -12267,7 +12280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -13575,7 +13588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -14846,13 +14859,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>E2:F30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Epics!$A$2:$A$16</xm:f>
           </x14:formula1>
@@ -14865,7 +14878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -15945,11 +15958,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17211,13 +17226,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Configuration Items'!$A$2:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -17230,7 +17245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:A1000"/>
   <sheetViews>
@@ -18294,13 +18309,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18386,12 +18401,23 @@
       <c r="A3" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="B3" s="13">
+        <v>44578</v>
+      </c>
+      <c r="C3" s="13">
+        <v>44579</v>
+      </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D17" si="0">D2+7</f>
         <v>44584</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -18579,12 +18605,22 @@
       <c r="A20" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="B20" s="13">
+        <v>44578</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44578</v>
+      </c>
       <c r="D20" s="8">
         <f t="shared" ref="D20:D34" si="1">D19+7</f>
         <v>44584</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -18750,7 +18786,7 @@
         <v>211</v>
       </c>
       <c r="D36" s="8">
-        <v>44227</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18764,7 +18800,7 @@
         <v>212</v>
       </c>
       <c r="D39" s="8">
-        <v>44241</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18778,7 +18814,7 @@
         <v>213</v>
       </c>
       <c r="D42" s="8">
-        <v>44262</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18792,7 +18828,7 @@
         <v>214</v>
       </c>
       <c r="D45" s="8">
-        <v>44283</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18806,7 +18842,7 @@
         <v>215</v>
       </c>
       <c r="D48" s="8">
-        <v>44286</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18820,7 +18856,7 @@
         <v>216</v>
       </c>
       <c r="D51" s="8">
-        <v>44267</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18834,7 +18870,7 @@
         <v>217</v>
       </c>
       <c r="D54" s="8">
-        <v>44311</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19831,7 +19867,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$H$2:$H$9</xm:f>
           </x14:formula1>

--- a/TeamWeeklyReport_TEAM1.xlsx
+++ b/TeamWeeklyReport_TEAM1.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcb0033\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3ryc\Documents\School\College\CS 499\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747101DE-1431-4946-861D-226129EB7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{8166B2E4-7435-44CF-B2CE-A0D05147DBA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Members List" sheetId="1" r:id="rId1"/>
@@ -26,7 +28,7 @@
     <sheet name="Problem Reports" sheetId="12" r:id="rId12"/>
     <sheet name="Lists" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -102,12 +104,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -154,12 +156,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -204,12 +206,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -227,12 +229,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -291,12 +293,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -315,12 +317,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="406">
   <si>
     <t>Name</t>
   </si>
@@ -1502,12 +1504,66 @@
   </si>
   <si>
     <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Truth Table Construction</t>
+  </si>
+  <si>
+    <t>Construct Truth Table from wff. Note any tautologies or contradictions.</t>
+  </si>
+  <si>
+    <t>Tautological Proofing</t>
+  </si>
+  <si>
+    <t>Convert left side of bioconditional statement to right side in order to verify a tautology. Step-by-step justification required.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 1.1 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 1.2 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 3.1 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 4.1 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 5.1 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 5.4 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 5.5 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 5.7 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 6.1 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 6.2 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to review Problems from Section 7.1 so that I can see their solutions and a step-by-step guide to solving them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 1.1 Web-Examples </t>
+  </si>
+  <si>
+    <t>Lay out example problems from Section 1.1 on web</t>
+  </si>
+  <si>
+    <t>Justify Proofing Sequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
@@ -1807,14 +1863,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5001,10 +5058,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -5012,13 +5069,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$9</xm:f>
           </x14:formula1>
@@ -5031,11 +5088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6119,11 +6177,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7225,13 +7284,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -7244,11 +7303,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8505,13 +8565,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$G$2:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -8524,7 +8584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -8532,6 +8592,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9704,7 +9765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -9714,6 +9775,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11018,7 +11080,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$6</xm:f>
           </x14:formula1>
@@ -11031,14 +11093,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12252,19 +12315,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$5</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="date" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="date" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Lists!D2</xm:f>
           </x14:formula1>
@@ -12280,13 +12343,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12350,7 +12416,7 @@
         <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -12372,7 +12438,7 @@
         <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -12394,7 +12460,7 @@
         <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -12416,7 +12482,7 @@
         <v>358</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -12438,7 +12504,7 @@
         <v>359</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -12460,7 +12526,7 @@
         <v>360</v>
       </c>
       <c r="C13" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -12482,7 +12548,7 @@
         <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12504,7 +12570,7 @@
         <v>362</v>
       </c>
       <c r="C17" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12526,7 +12592,7 @@
         <v>363</v>
       </c>
       <c r="C19" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12548,7 +12614,7 @@
         <v>364</v>
       </c>
       <c r="C21" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12570,7 +12636,7 @@
         <v>365</v>
       </c>
       <c r="C23" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13588,13 +13654,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13651,25 +13720,59 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="C2" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="2"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="C3" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="2"/>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>404</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -13678,6 +13781,9 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -14854,22 +14960,28 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>E2:F30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Epics!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A30</xm:sqref>
+          <xm:sqref>A3:A30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{381C3F0C-3DAB-41B1-AD7D-E3EB678F27CA}">
+          <x14:formula1>
+            <xm:f>Epics!$A$2:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14878,11 +14990,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15958,13 +16071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17226,13 +17340,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>'Configuration Items'!$A$2:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>'Members List'!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -17245,11 +17359,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18309,7 +18424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -18317,6 +18432,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19867,7 +19983,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$H$2:$H$9</xm:f>
           </x14:formula1>

--- a/TeamWeeklyReport_TEAM1.xlsx
+++ b/TeamWeeklyReport_TEAM1.xlsx
@@ -5,13 +5,13 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l3ryc\Documents\School\College\CS 499\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Desktop\CS-499\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747101DE-1431-4946-861D-226129EB7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7424DCA3-78F3-4023-9EFE-B9D5F4D4074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{8166B2E4-7435-44CF-B2CE-A0D05147DBA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5805" yWindow="3735" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="2" xr2:uid="{8166B2E4-7435-44CF-B2CE-A0D05147DBA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Members List" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,14 @@
     <sheet name="Problem Reports" sheetId="12" r:id="rId12"/>
     <sheet name="Lists" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -54,6 +56,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Optional </t>
@@ -67,6 +70,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Use the Class cells to enter current student class schedule for the term. </t>
@@ -80,6 +84,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Enter student work schedule. </t>
@@ -93,6 +98,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Other scheduled items such as other meetings or commitments that need to be taken in account. </t>
@@ -116,6 +122,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Copied from Members List
@@ -130,6 +137,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Select Role or Attendance
@@ -144,6 +152,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 If you team is keep meeting minutes in Word documents (or simular) attach the file here. 
@@ -168,6 +177,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Provide short title to help quickly identify the nature of the action. </t>
@@ -181,6 +191,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Details on what this action involves and relationships with other actions for tasks. 
@@ -195,6 +206,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Kevin Preston:
 How was the action resolved? Did the team agree with the closure information? Were other actions assigned because of this AI?</t>
@@ -218,6 +230,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Kevin Preston:
 Only use if your team is doing Epics and User Stories as part of Agile</t>
@@ -241,6 +254,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Only use if your team is doing Epics and User Stories as part of Agil
@@ -255,6 +269,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Kevin Preston:
 Short Title</t>
@@ -268,6 +283,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Full User Story in the required format. </t>
@@ -281,6 +297,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Which team member is assigned to implement this user Story. 
@@ -305,6 +322,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Mitigation Steps should be put on the Schedule Tab.
@@ -329,6 +347,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Kevin Preston:
 Owner has performed the action but the team has to agee to the closure plan. </t>
@@ -1578,17 +1597,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11101,7 +11123,9 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12352,7 +12376,7 @@
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
     <sheetView workbookViewId="1">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13660,10 +13684,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TeamWeeklyReport_TEAM1.xlsx
+++ b/TeamWeeklyReport_TEAM1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="605">
   <si>
     <t>Name</t>
   </si>
@@ -312,6 +312,9 @@
     <t>Chaz</t>
   </si>
   <si>
+    <t>Test Lead</t>
+  </si>
+  <si>
     <t>cry0003@uah.edu</t>
   </si>
   <si>
@@ -426,6 +429,12 @@
     <t>Finish SDP Document/Presenstation</t>
   </si>
   <si>
+    <t>Finish up rest of the user and epics</t>
+  </si>
+  <si>
+    <t>Cleaning up Team Report</t>
+  </si>
+  <si>
     <t>Time (hrs)</t>
   </si>
   <si>
@@ -528,6 +537,30 @@
     <t>AI-08</t>
   </si>
   <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>Get home server up and working with SQL database</t>
+  </si>
+  <si>
+    <t>AI-09</t>
+  </si>
+  <si>
+    <t>AI-10</t>
+  </si>
+  <si>
+    <t>AI-11</t>
+  </si>
+  <si>
+    <t>AI-12</t>
+  </si>
+  <si>
+    <t>AI-13</t>
+  </si>
+  <si>
+    <t>AI-14</t>
+  </si>
+  <si>
     <t>Epic ID</t>
   </si>
   <si>
@@ -778,6 +811,15 @@
   </si>
   <si>
     <t>As a Webmaster, I want to be able to review user data such as basic user information, connection time, features used/accessed, and user inputs so that I can monitor website usage.</t>
+  </si>
+  <si>
+    <t>E10.1</t>
+  </si>
+  <si>
+    <t>Website GUI</t>
+  </si>
+  <si>
+    <t>As a User, I want to be able to navigate an easy to use website</t>
   </si>
   <si>
     <t>Parent Epic ID</t>
@@ -1065,157 +1107,337 @@
     <t>Lay out practice and example problems from 5.5 on the web.</t>
   </si>
   <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>boolean matrix structure</t>
+  </si>
+  <si>
+    <t>create Structure to store boolean matrix</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>boolean matrix operation</t>
+  </si>
+  <si>
+    <t>Cross Matrix, AND, OR, ETC</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>boolean matrix Input and GUI solver</t>
+  </si>
+  <si>
+    <t>Render the MAtrix and show the steps taken to solve the matrix</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>Section 5.7 Web-examples</t>
+  </si>
+  <si>
+    <t>Lay out practice and example problems from 5.7 on the web.</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>*6.1* Create an adjacency matrix from a graph</t>
+  </si>
+  <si>
+    <t>Read edges of a graph and convert it to an adjacency matrix</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>Create a graph from an adjacency matrix</t>
+  </si>
+  <si>
+    <t>Read in a matrix and convert it to an image file of a graph</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>Create an adjacency list from a graph</t>
+  </si>
+  <si>
+    <t>Read edges of a graph and convert it to a list of connections</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>Create a graph from an adjacency list</t>
+  </si>
+  <si>
+    <t>Read in an adjacency list and convert it to an image file of a graph</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>Create array-pointer representations from a graph</t>
+  </si>
+  <si>
+    <t>Read in a graph and create a table of the array-pointer representations</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>Section 6.1 Web-Examples</t>
+  </si>
+  <si>
+    <t>Lay out practice and example problems from 6.1</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>Expression trees (5-8)</t>
+  </si>
+  <si>
+    <t>be able to create expression trees from equations</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>left child right child representation (9-12,15,16)</t>
+  </si>
+  <si>
+    <t>write/draw left child and right child from binary trees and trees</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>(preorder, inorder, postorder) traversal (19-24)</t>
+  </si>
+  <si>
+    <t>write the list of nodes in all forms of traversale</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>prefix, postfix, infix, expression (25 - 32)</t>
+  </si>
+  <si>
+    <t>write from any notation into any other notation and evaluate them</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Section 6.2 Web - Examples</t>
+  </si>
+  <si>
+    <t>Lay out practice and example problems from 6.2</t>
+  </si>
+  <si>
+    <t>US43</t>
+  </si>
+  <si>
+    <t>Adjacency matrix, relation, and directed graphs (1-6)</t>
+  </si>
+  <si>
+    <t>Convert graph to matrix + relation, convert matrix to graph + relation, convert relation to graph + matrix</t>
+  </si>
+  <si>
+    <t>US44</t>
+  </si>
+  <si>
+    <t>Matrix multiplication + boolean matrix multiplication (19,20)</t>
+  </si>
+  <si>
+    <t>Solve M^2 and M^(2), where the former is standard matrix multiplication and the latter is boolean matrix multiplication</t>
+  </si>
+  <si>
+    <t>US45</t>
+  </si>
+  <si>
+    <t>Reachability matrix using formula and Warshall's Algorithm (25-36)</t>
+  </si>
+  <si>
+    <t>Compute Reachability matrix using formula on pg. 559, and Warshall's algorithm on pg. 563</t>
+  </si>
+  <si>
+    <t>US46</t>
+  </si>
+  <si>
+    <t>Warshall's algorithm to find transitive closure of binary relations (39,40</t>
+  </si>
+  <si>
+    <t>Read in relation and set and use Warshall's to find transitive closure</t>
+  </si>
+  <si>
+    <t>US47</t>
+  </si>
+  <si>
+    <t>Section 7.1 Web-Examples</t>
+  </si>
+  <si>
+    <t>Lay out practice and example problems from 7.1</t>
+  </si>
+  <si>
     <t>US48</t>
   </si>
   <si>
-    <t>boolean matrix structure</t>
-  </si>
-  <si>
-    <t>create Structure to store boolean matrix</t>
+    <t>Log in Page</t>
+  </si>
+  <si>
+    <t>A user can Login,</t>
   </si>
   <si>
     <t>US49</t>
   </si>
   <si>
-    <t>boolean matrix operation</t>
-  </si>
-  <si>
-    <t>Cross Matrix, AND, OR, ETC</t>
+    <t>Log in Page Database</t>
+  </si>
+  <si>
+    <t>The login page will store logins to the database</t>
   </si>
   <si>
     <t>US50</t>
   </si>
   <si>
-    <t>boolean matrix Input and GUI solver</t>
-  </si>
-  <si>
-    <t>Render the MAtrix and show the steps taken to solve the matrix</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>*6.1* Create an adjacency matrix from a graph</t>
-  </si>
-  <si>
-    <t>Read edges of a graph and convert it to an adjacency matrix</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>Create a graph from an adjacency matrix</t>
-  </si>
-  <si>
-    <t>Read in a matrix and convert it to an image file of a graph</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>Create an adjacency list from a graph</t>
-  </si>
-  <si>
-    <t>Read edges of a graph and convert it to a list of connections</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>Create a graph from an adjacency list</t>
-  </si>
-  <si>
-    <t>Read in an adjacency list and convert it to an image file of a graph</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>Create array-pointer representations from a graph</t>
-  </si>
-  <si>
-    <t>Read in a graph and create a table of the array-pointer representations</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>Section 6.1 Web-Examples</t>
-  </si>
-  <si>
-    <t>Lay out practice and example problems from 6.1</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>Section 6.2 Web - Examples</t>
-  </si>
-  <si>
-    <t>Lay out practice and example problems from 6.2</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>Expression trees (5-8)</t>
-  </si>
-  <si>
-    <t>be able to create expression trees from equations</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>left child right child representation (9-12,15,16)</t>
-  </si>
-  <si>
-    <t>write/draw left child and right child from binary trees and trees</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>(preorder, inorder, postorder) traversal (19-24)</t>
-  </si>
-  <si>
-    <t>write the list of nodes in all forms of traversale</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>prefix, postfix, infix, expression (25 - 32)</t>
-  </si>
-  <si>
-    <t>write from any notation into any other notation and evaluate them</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>US43</t>
-  </si>
-  <si>
-    <t>US44</t>
-  </si>
-  <si>
-    <t>US45</t>
-  </si>
-  <si>
-    <t>US46</t>
-  </si>
-  <si>
-    <t>US47</t>
+    <t>Make page for section 1.1</t>
+  </si>
+  <si>
+    <t>Make the webpage for the solver GUI for the section</t>
+  </si>
+  <si>
+    <t>US51</t>
+  </si>
+  <si>
+    <t>Make page for section 1.2</t>
+  </si>
+  <si>
+    <t>US52</t>
+  </si>
+  <si>
+    <t>Make page for section 3.1</t>
+  </si>
+  <si>
+    <t>US53</t>
+  </si>
+  <si>
+    <t>Make page for section 4.1</t>
+  </si>
+  <si>
+    <t>US54</t>
+  </si>
+  <si>
+    <t>Make page for section 5.1</t>
+  </si>
+  <si>
+    <t>US55</t>
+  </si>
+  <si>
+    <t>Make page for section 5.2</t>
+  </si>
+  <si>
+    <t>US56</t>
+  </si>
+  <si>
+    <t>Make page for section 5.4</t>
+  </si>
+  <si>
+    <t>US57</t>
+  </si>
+  <si>
+    <t>Make page for section 5.5</t>
+  </si>
+  <si>
+    <t>US58</t>
+  </si>
+  <si>
+    <t>Make page for section 5.7</t>
+  </si>
+  <si>
+    <t>US59</t>
+  </si>
+  <si>
+    <t>Make page for section 6.1</t>
+  </si>
+  <si>
+    <t>US60</t>
+  </si>
+  <si>
+    <t>Make page for section 6.2</t>
+  </si>
+  <si>
+    <t>US61</t>
+  </si>
+  <si>
+    <t>Make page for section 7.1</t>
+  </si>
+  <si>
+    <t>US62</t>
+  </si>
+  <si>
+    <t>Make Components for section pages</t>
+  </si>
+  <si>
+    <t>US63</t>
+  </si>
+  <si>
+    <t>Home page links</t>
+  </si>
+  <si>
+    <t>make links from homepage go to each section</t>
+  </si>
+  <si>
+    <t>US64</t>
+  </si>
+  <si>
+    <t>Home Page layout</t>
+  </si>
+  <si>
+    <t>Make the GUI for the homepage</t>
+  </si>
+  <si>
+    <t>US65</t>
+  </si>
+  <si>
+    <t>Report Problems</t>
+  </si>
+  <si>
+    <t>A user can report a problem, this will go to a database the webmaster can view</t>
+  </si>
+  <si>
+    <t>US66</t>
+  </si>
+  <si>
+    <t>Webmaster view tickets</t>
+  </si>
+  <si>
+    <t>The webmaster can see a page on the website of reported tickets</t>
+  </si>
+  <si>
+    <t>US67</t>
+  </si>
+  <si>
+    <t>Webmaster VIew History</t>
+  </si>
+  <si>
+    <t>The Webmaster can see who has been on what page, and what they have done, and when?</t>
+  </si>
+  <si>
+    <t>US68</t>
+  </si>
+  <si>
+    <t>Web Interface Enhancement</t>
+  </si>
+  <si>
+    <t>ART/Create animations and style website</t>
   </si>
   <si>
     <t>CI-ID</t>
@@ -1539,12 +1761,12 @@
     <t xml:space="preserve">Architerctural Design </t>
   </si>
   <si>
+    <t xml:space="preserve">Beta Release </t>
+  </si>
+  <si>
     <t xml:space="preserve">Preliminary GIU Design </t>
   </si>
   <si>
-    <t xml:space="preserve">Beta Release </t>
-  </si>
-  <si>
     <t xml:space="preserve">Delivery Rev 1.0 </t>
   </si>
   <si>
@@ -1789,9 +2011,6 @@
   </si>
   <si>
     <t>Corrected</t>
-  </si>
-  <si>
-    <t>Test Lead</t>
   </si>
   <si>
     <t>Absent - Known</t>
@@ -2373,9 +2592,11 @@
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4">
         <v>2.054410261E9</v>
@@ -2390,21 +2611,20 @@
         <v>32</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7">
@@ -2446,7 +2666,7 @@
     <row r="19">
       <c r="D19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="D20" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -3046,9 +3266,7 @@
     <row r="219" ht="15.75" customHeight="1">
       <c r="D219" s="4"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="D220" s="4"/>
-    </row>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -3828,13 +4046,12 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
       <formula1>Lists!$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B5">
       <formula1>Lists!$A$2:$A$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -3873,22 +4090,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>443</v>
+        <v>517</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3913,63 +4130,63 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>445</v>
+        <v>519</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>449</v>
+        <v>523</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4956,11 +5173,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E10">
+      <formula1>'Members List'!$A$2:$A$5</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F10">
       <formula1>Lists!$F$2:$F$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E10">
-      <formula1>'Members List'!$A$2:$A$6</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -4990,30 +5207,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>528</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>461</v>
+        <v>535</v>
       </c>
       <c r="C2" s="10">
         <v>4.0</v>
@@ -5026,15 +5243,15 @@
         <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>463</v>
+        <v>537</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="C3" s="10">
         <v>1.0</v>
@@ -5047,15 +5264,15 @@
         <v>4</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>466</v>
+        <v>540</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="C4" s="10">
         <v>2.0</v>
@@ -5068,7 +5285,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5">
@@ -5085,16 +5302,16 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>469</v>
+        <v>543</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -5121,16 +5338,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="C9" s="10">
         <v>2.0</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -6157,25 +6374,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>477</v>
+        <v>551</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -6199,7 +6416,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>478</v>
+        <v>552</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6207,7 +6424,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6215,7 +6432,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6223,7 +6440,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6231,7 +6448,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6239,7 +6456,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6247,7 +6464,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6255,7 +6472,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6263,7 +6480,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6271,7 +6488,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -6279,7 +6496,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6287,7 +6504,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6295,7 +6512,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6303,7 +6520,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6311,7 +6528,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6319,7 +6536,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6327,7 +6544,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6335,7 +6552,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>495</v>
+        <v>569</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6343,7 +6560,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6351,7 +6568,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>497</v>
+        <v>571</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6359,7 +6576,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -6367,7 +6584,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -6375,49 +6592,49 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="D28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="D29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>506</v>
+        <v>580</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="2"/>
@@ -7395,7 +7612,7 @@
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:F23 F24:F30">
-      <formula1>'Members List'!$A$2:$A$6</formula1>
+      <formula1>'Members List'!$A$2:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D30">
       <formula1>Lists!$G$2:$G$5</formula1>
@@ -7437,25 +7654,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -7481,10 +7698,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D2" s="11">
         <v>44572.0</v>
@@ -7493,10 +7710,10 @@
         <v>44680.0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>'Members List'!A2</f>
@@ -7508,16 +7725,16 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>'Members List'!A3</f>
@@ -7526,19 +7743,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="H4" s="2" t="str">
         <f>'Members List'!A4</f>
@@ -7547,19 +7764,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>522</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>'Members List'!A5</f>
@@ -7568,30 +7785,30 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>'Members List'!A6</f>
-        <v/>
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9">
@@ -7599,7 +7816,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8613,83 +8830,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8">
         <v>44572.0</v>
@@ -8706,8 +8923,12 @@
       <c r="F2" s="9">
         <v>44590.0</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="9">
+        <v>44597.0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>44598.0</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -8733,21 +8954,23 @@
         <v>Sam</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -8772,21 +8995,23 @@
         <v>Bryce</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -8811,22 +9036,26 @@
         <v>Pierre</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -8850,21 +9079,23 @@
         <v>Chaz</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -8884,10 +9115,7 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
-        <f>'Members List'!A6</f>
-        <v/>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -8914,27 +9142,33 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6">
         <v>0.5</v>
@@ -8950,6 +9184,12 @@
       </c>
       <c r="F9" s="10">
         <v>1.5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -9972,28 +10212,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -10016,13 +10256,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" s="11">
         <v>44574.0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="12">
         <v>44583.0</v>
@@ -10031,22 +10271,22 @@
         <v>21</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" s="11">
         <v>44574.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="13">
         <v>44591.0</v>
@@ -10055,87 +10295,87 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B4" s="11">
         <v>44574.0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B5" s="11">
         <v>44574.0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B6" s="12">
         <v>44584.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B7" s="12">
         <v>44584.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" s="13">
         <v>44591.0</v>
@@ -10144,63 +10384,94 @@
         <v>28</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B8" s="13">
         <v>44585.0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="13">
         <v>44591.0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="B9" s="13">
+        <v>44598.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B10" s="11"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
@@ -11234,12 +11505,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="date" allowBlank="1" showErrorMessage="1" sqref="D4:D6 B2:B7 B9:B36">
+    <dataValidation type="date" allowBlank="1" showErrorMessage="1" sqref="D4:D6 B2:B7 B10:B36">
       <formula1>Lists!D2</formula1>
       <formula2>Lists!E2</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7">
-      <formula1>'Members List'!$A$2:$A$6</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7 E9">
+      <formula1>'Members List'!$A$2:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C16">
       <formula1>Lists!$C$2:$C$5</formula1>
@@ -11274,13 +11545,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -11305,302 +11576,312 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" ht="15.0" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" ht="15.0" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
     <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
@@ -12607,25 +12888,25 @@
   <sheetData>
     <row r="1" ht="30.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -12649,16 +12930,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -12670,16 +12951,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -12691,32 +12972,32 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -12725,32 +13006,32 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
@@ -12760,21 +13041,21 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>11</v>
@@ -12783,16 +13064,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>21</v>
@@ -12804,16 +13085,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>21</v>
@@ -12825,16 +13106,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>21</v>
@@ -12843,16 +13124,16 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>21</v>
@@ -12861,32 +13142,32 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>21</v>
@@ -12895,16 +13176,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>21</v>
@@ -12913,16 +13194,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>21</v>
@@ -12931,16 +13212,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>21</v>
@@ -12949,16 +13230,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>21</v>
@@ -12967,32 +13248,32 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
@@ -13004,16 +13285,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
@@ -13025,16 +13306,16 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
@@ -13046,16 +13327,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>28</v>
@@ -13067,16 +13348,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
@@ -13088,16 +13369,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
@@ -13109,64 +13390,64 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>35</v>
@@ -13178,16 +13459,16 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>35</v>
@@ -13199,16 +13480,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>35</v>
@@ -13220,37 +13501,33 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="10">
-        <v>1.0</v>
-      </c>
+      <c r="G32" s="10"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>35</v>
@@ -13262,16 +13539,16 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>35</v>
@@ -13281,18 +13558,18 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>35</v>
@@ -13304,16 +13581,16 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>35</v>
@@ -13325,229 +13602,551 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F37" s="2"/>
+      <c r="G37" s="10">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>309</v>
+        <v>322</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2"/>
+      <c r="A43" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>322</v>
+        <v>336</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2"/>
+      <c r="A44" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F44" s="2"/>
+      <c r="G44" s="10">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2"/>
+      <c r="A45" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F45" s="2"/>
+      <c r="G45" s="10">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2"/>
+      <c r="A46" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>325</v>
+        <v>345</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2"/>
+      <c r="A47" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>326</v>
+        <v>348</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2"/>
+      <c r="A48" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>327</v>
+        <v>351</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="B49" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="B50" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6"/>
+      <c r="A56" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6"/>
+      <c r="A57" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="6"/>
+      <c r="A59" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="6"/>
+      <c r="A61" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6"/>
+      <c r="A63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6"/>
+      <c r="A64" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6"/>
+      <c r="A65" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="10">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6"/>
+      <c r="A66" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="6"/>
+      <c r="A68" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="6"/>
+      <c r="A69" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="6"/>
@@ -16255,54 +16854,12 @@
     <row r="971" ht="15.75" customHeight="1">
       <c r="A971" s="6"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="6"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="6"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="6"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="6"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="6"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="6"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="6"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="6"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="6"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="6"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="6"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="6"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="6"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="6"/>
-    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:F51">
-      <formula1>'Members List'!$A$2:$A$6</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:F69">
+      <formula1>'Members List'!$A$2:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A1:A985">
+    <dataValidation type="list" allowBlank="1" sqref="A1:A971">
       <formula1>Epics!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -16332,13 +16889,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -16363,47 +16920,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -17415,22 +17972,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17456,238 +18013,238 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>357</v>
+        <v>431</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>375</v>
+        <v>449</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -18659,7 +19216,7 @@
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F35">
-      <formula1>'Members List'!$A$2:$A$6</formula1>
+      <formula1>'Members List'!$A$2:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A35">
       <formula1>'Configuration Items'!$A$2:$A$11</formula1>
@@ -18689,76 +19246,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>385</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>387</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>389</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>390</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>391</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>396</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -19774,25 +20331,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -19816,7 +20373,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="B2" s="11">
         <v>44572.0</v>
@@ -19833,7 +20390,7 @@
         <v>44577</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>21</v>
@@ -19841,7 +20398,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="B3" s="11">
         <v>44578.0</v>
@@ -19865,7 +20422,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="B4" s="13">
         <v>44585.0</v>
@@ -19881,7 +20438,7 @@
         <v>44591.0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>21</v>
@@ -19889,18 +20446,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>406</v>
+        <v>480</v>
+      </c>
+      <c r="B5" s="13">
+        <v>44592.0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44592.0</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="1"/>
         <v>44598</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="13">
+        <v>44598.0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>407</v>
+        <v>481</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="1"/>
@@ -19911,7 +20481,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="1"/>
@@ -19922,7 +20492,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="1"/>
@@ -19933,7 +20503,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="1"/>
@@ -19944,7 +20514,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="1"/>
@@ -19955,7 +20525,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="1"/>
@@ -19966,7 +20536,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="1"/>
@@ -19977,7 +20547,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>414</v>
+        <v>488</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="1"/>
@@ -19988,7 +20558,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="1"/>
@@ -19999,7 +20569,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="1"/>
@@ -20010,7 +20580,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="1"/>
@@ -20021,7 +20591,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="1"/>
@@ -20037,7 +20607,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="B19" s="11">
         <v>44572.0</v>
@@ -20052,15 +20622,15 @@
         <v>44577.0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="B20" s="11">
         <v>44578.0</v>
@@ -20077,15 +20647,15 @@
         <v>44584</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="B21" s="13">
         <v>44585.0</v>
@@ -20102,26 +20672,39 @@
         <v>44591</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>422</v>
+        <v>496</v>
+      </c>
+      <c r="B22" s="13">
+        <v>44592.0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44592.0</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" ref="D22:D34" si="4">D21+7</f>
         <v>44598</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="E22" s="13">
+        <v>44598.0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="4"/>
@@ -20132,7 +20715,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="4"/>
@@ -20143,7 +20726,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="4"/>
@@ -20154,7 +20737,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="4"/>
@@ -20165,7 +20748,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="4"/>
@@ -20176,7 +20759,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="4"/>
@@ -20187,7 +20770,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="4"/>
@@ -20198,7 +20781,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="4"/>
@@ -20209,7 +20792,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="4"/>
@@ -20220,7 +20803,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="4"/>
@@ -20231,7 +20814,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="D33" s="11">
         <f t="shared" si="4"/>
@@ -20242,7 +20825,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="4"/>
@@ -20258,95 +20841,147 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="D36" s="11">
         <v>44592.0</v>
       </c>
+      <c r="E36" s="13">
+        <v>43860.0</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="D37" s="11"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="D38" s="11"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="D39" s="11">
         <v>44606.0</v>
       </c>
+      <c r="F39" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="D40" s="11"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="D41" s="11"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="D42" s="11">
         <v>44627.0</v>
       </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="D43" s="11"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="11"/>
+      <c r="A44" s="2"/>
+      <c r="D44" s="12"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D45" s="11">
-        <v>44648.0</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="D45" s="12">
+        <v>44633.0</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2"/>
       <c r="D46" s="11"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2"/>
       <c r="D47" s="11"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="D48" s="11">
-        <v>44651.0</v>
-      </c>
+        <v>44648.0</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="D49" s="11"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="D50" s="11"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="D51" s="11">
         <v>44632.0</v>
       </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="D52" s="11"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="D53" s="11"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="D54" s="11">
         <v>44676.0</v>
       </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="D55" s="11"/>
@@ -21338,7 +21973,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:G35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:G54">
       <formula1>Lists!$H$2:$H$9</formula1>
     </dataValidation>
   </dataValidations>
